--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1628610.922875408</v>
+        <v>1625916.3526031</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2696891.392602771</v>
+        <v>2696891.392602768</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4628285.718801246</v>
+        <v>4628285.718801248</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>353.8360006294075</v>
+        <v>259.4391951613867</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.07546405781846</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>351.3202151179025</v>
       </c>
       <c r="H5" t="n">
-        <v>291.6764919653442</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>181.5440065831535</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>226.1191533066457</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>145.554196501947</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>381.7228736769095</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -1341,10 +1341,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>408.6710726488808</v>
       </c>
       <c r="H11" t="n">
-        <v>317.1548035061597</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>236.8173891262818</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>320.2163249728227</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1469,7 +1469,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I12" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.71688629051013</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S12" t="n">
         <v>130.0030447201288</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>115.3999737951352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.6717799003976</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5755942905643</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>209.5478289578088</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>77.93630844834497</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>317.1548035061597</v>
       </c>
       <c r="I14" t="n">
-        <v>123.0727134769421</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.99566033642637</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>186.6454441575188</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>162.2720158802883</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I15" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.71688629051013</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S15" t="n">
         <v>130.0030447201288</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>109.8756284147635</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -1782,13 +1782,13 @@
         <v>166.4100049457286</v>
       </c>
       <c r="H16" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>126.906482568077</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.65584247365965</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.06675708308635</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.6710726488808</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>317.1548035061597</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>123.0727134769421</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.6894543054248</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1663978451077</v>
       </c>
       <c r="V17" t="n">
-        <v>281.013803035596</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>71.52774190742606</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I18" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71688629051013</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S18" t="n">
         <v>130.0030447201288</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>126.906482568077</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>61.62825102555993</v>
+        <v>99.25231435054495</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6717799003976</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5755942905643</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>261.9153915189772</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>190.8699492278733</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -2101,7 +2101,7 @@
         <v>317.1548035061597</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>123.0727134769421</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I21" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71688629051013</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S21" t="n">
         <v>130.0030447201288</v>
@@ -2238,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>158.1135551018321</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>18.65584247365967</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.6717799003976</v>
       </c>
       <c r="U22" t="n">
-        <v>79.2563414381775</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>212.1985842820224</v>
       </c>
       <c r="G23" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>203.7515129259617</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>156.1770809228911</v>
       </c>
       <c r="X25" t="n">
-        <v>98.2211330066695</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>137.8901943858236</v>
       </c>
       <c r="U26" t="n">
-        <v>212.3425691598622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2654,7 +2654,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I27" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597831</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>73.33996412749639</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>160.5830991923851</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>11.94721032648581</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
@@ -2854,10 +2854,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>260.2964446185183</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2891,7 +2891,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I30" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597831</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>76.19311257242965</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>200.5069374906846</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3040,16 +3040,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>287.3215974815652</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>169.0289709756474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>38.91286352692094</v>
+        <v>93.30490321450009</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,7 +3274,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>75.47793603351018</v>
       </c>
       <c r="T35" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>21.4523065243024</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.5584820872119</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66783807881568</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>337.6399793470401</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,7 +3520,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>113.8693593270194</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>91.1803206999993</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.159035953839306</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.89885555416242</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>98.47320983284301</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3808,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>54.33872756301466</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.928275491557617</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>150.7152511436513</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>296.6355406340872</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>53.84591275523672</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>167.3893027815782</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>49.52512233306458</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2161.142036303752</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C2" t="n">
-        <v>1803.731934657886</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="D2" t="n">
-        <v>1418.290805874553</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E2" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210756</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
         <v>191.9627430103717</v>
@@ -4342,40 +4342,40 @@
         <v>1096.945999082414</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>2161.142036303752</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.142036303752</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y2" t="n">
-        <v>2161.142036303752</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083082</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110953</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072447</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2241.747515709756</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>2006.028463877991</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>2006.028463877991</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V4" t="n">
-        <v>2006.028463877991</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W4" t="n">
-        <v>2006.028463877991</v>
+        <v>163.7311935633321</v>
       </c>
       <c r="X4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>2006.028463877991</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.671101540193</v>
+        <v>808.2114101877287</v>
       </c>
       <c r="C5" t="n">
-        <v>766.4956000431234</v>
+        <v>415.0359086906593</v>
       </c>
       <c r="D5" t="n">
-        <v>766.4956000431234</v>
+        <v>415.0359086906593</v>
       </c>
       <c r="E5" t="n">
-        <v>363.9120751596679</v>
+        <v>415.0359086906593</v>
       </c>
       <c r="F5" t="n">
-        <v>351.0580407300498</v>
+        <v>402.1818742610411</v>
       </c>
       <c r="G5" t="n">
-        <v>341.935689258457</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184851</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>1956.656556330989</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X5" t="n">
-        <v>1956.656556330989</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.16584725159</v>
+        <v>1208.706155899126</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.9460831990288</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C7" t="n">
-        <v>202.9460831990288</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>202.9460831990288</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>202.9460831990288</v>
+        <v>720.3568074848681</v>
       </c>
       <c r="W7" t="n">
-        <v>202.9460831990288</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="X7" t="n">
-        <v>202.9460831990288</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.9460831990288</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1594.628716014141</v>
+        <v>1980.069844797474</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.453214517072</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="D8" t="n">
         <v>1201.453214517072</v>
@@ -4798,58 +4798,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415867</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636596</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.123461725538</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.123461725538</v>
+        <v>1980.069844797474</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
         <v>429.4892645340348</v>
@@ -4877,25 +4877,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.164039799289</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805891</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825358</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="C10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="D10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="F10" t="n">
         <v>534.5182705774242</v>
@@ -4959,16 +4959,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4989,25 +4989,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="X10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.8590032756731</v>
+        <v>534.5182705774242</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2401.694663323949</v>
+        <v>2081.33627594399</v>
       </c>
       <c r="C11" t="n">
-        <v>2008.51916182688</v>
+        <v>1688.16077444692</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.078033043547</v>
+        <v>1302.719645663588</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.494508160092</v>
+        <v>900.1361207801326</v>
       </c>
       <c r="F11" t="n">
-        <v>803.6000696900696</v>
+        <v>483.2416823101103</v>
       </c>
       <c r="G11" t="n">
-        <v>390.8010064083718</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H11" t="n">
         <v>70.44261902841252</v>
@@ -5041,10 +5041,10 @@
         <v>70.44261902841252</v>
       </c>
       <c r="J11" t="n">
-        <v>245.3460436923002</v>
+        <v>245.3460436923001</v>
       </c>
       <c r="K11" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L11" t="n">
         <v>1199.242306705369</v>
@@ -5053,40 +5053,40 @@
         <v>1807.83354273411</v>
       </c>
       <c r="N11" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O11" t="n">
         <v>2899.346156407833</v>
       </c>
       <c r="P11" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q11" t="n">
         <v>3522.130951420626</v>
       </c>
       <c r="R11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="T11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="U11" t="n">
-        <v>3522.130951420626</v>
+        <v>3267.774335801729</v>
       </c>
       <c r="V11" t="n">
-        <v>3522.130951420626</v>
+        <v>3267.774335801729</v>
       </c>
       <c r="W11" t="n">
-        <v>3522.130951420626</v>
+        <v>3267.774335801729</v>
       </c>
       <c r="X11" t="n">
-        <v>3198.680118114745</v>
+        <v>2878.321730734785</v>
       </c>
       <c r="Y11" t="n">
-        <v>2802.189409035346</v>
+        <v>2481.831021655386</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>70.44261902841252</v>
       </c>
       <c r="L12" t="n">
-        <v>70.44261902841252</v>
+        <v>420.1366852106107</v>
       </c>
       <c r="M12" t="n">
-        <v>654.1919160067575</v>
+        <v>1096.232460392823</v>
       </c>
       <c r="N12" t="n">
-        <v>1359.573008583379</v>
+        <v>1801.613552969444</v>
       </c>
       <c r="O12" t="n">
-        <v>1921.470456467953</v>
+        <v>2363.511000854018</v>
       </c>
       <c r="P12" t="n">
         <v>2363.511000854018</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.44261902841252</v>
+        <v>397.9736717494504</v>
       </c>
       <c r="C13" t="n">
-        <v>70.44261902841252</v>
+        <v>227.7685538154396</v>
       </c>
       <c r="D13" t="n">
-        <v>70.44261902841252</v>
+        <v>227.7685538154396</v>
       </c>
       <c r="E13" t="n">
-        <v>70.44261902841252</v>
+        <v>227.7685538154396</v>
       </c>
       <c r="F13" t="n">
         <v>70.44261902841252</v>
@@ -5217,34 +5217,34 @@
         <v>963.0719977419543</v>
       </c>
       <c r="P13" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q13" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R13" t="n">
-        <v>1002.531987632246</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S13" t="n">
-        <v>802.5589858453526</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T13" t="n">
-        <v>567.5369859459611</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="U13" t="n">
-        <v>282.1070927231689</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="V13" t="n">
-        <v>70.44261902841252</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="W13" t="n">
-        <v>70.44261902841252</v>
+        <v>1040.374073841125</v>
       </c>
       <c r="X13" t="n">
-        <v>70.44261902841252</v>
+        <v>806.2937516241084</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.44261902841252</v>
+        <v>583.1816904407517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1375.958646391201</v>
+        <v>1988.895600042251</v>
       </c>
       <c r="C14" t="n">
-        <v>982.7831448941316</v>
+        <v>1595.720098545182</v>
       </c>
       <c r="D14" t="n">
-        <v>597.3420161107994</v>
+        <v>1210.27896976185</v>
       </c>
       <c r="E14" t="n">
-        <v>194.7584912273439</v>
+        <v>807.695444878394</v>
       </c>
       <c r="F14" t="n">
-        <v>194.7584912273439</v>
+        <v>390.8010064083718</v>
       </c>
       <c r="G14" t="n">
-        <v>194.7584912273439</v>
+        <v>390.8010064083718</v>
       </c>
       <c r="H14" t="n">
-        <v>194.7584912273439</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I14" t="n">
         <v>70.44261902841252</v>
@@ -5281,49 +5281,49 @@
         <v>245.3460436923001</v>
       </c>
       <c r="K14" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L14" t="n">
-        <v>1199.24230670537</v>
+        <v>1199.242306705369</v>
       </c>
       <c r="M14" t="n">
-        <v>1807.833542734109</v>
+        <v>1807.83354273411</v>
       </c>
       <c r="N14" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O14" t="n">
         <v>2899.346156407833</v>
       </c>
       <c r="P14" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q14" t="n">
         <v>3522.130951420626</v>
       </c>
       <c r="R14" t="n">
-        <v>3506.98381976767</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="S14" t="n">
-        <v>3348.75790140666</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="T14" t="n">
-        <v>3348.75790140666</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="U14" t="n">
-        <v>3093.034267219683</v>
+        <v>3266.407317233648</v>
       </c>
       <c r="V14" t="n">
-        <v>2750.927457923201</v>
+        <v>2924.300507937167</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.39670624894</v>
+        <v>2553.301472905454</v>
       </c>
       <c r="X14" t="n">
-        <v>2172.944101181997</v>
+        <v>2389.390345753648</v>
       </c>
       <c r="Y14" t="n">
-        <v>1776.453392102598</v>
+        <v>2389.390345753648</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>70.44261902841252</v>
       </c>
       <c r="J15" t="n">
-        <v>70.44261902841252</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K15" t="n">
-        <v>70.44261902841252</v>
+        <v>552.1127299859706</v>
       </c>
       <c r="L15" t="n">
-        <v>420.1366852106107</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="M15" t="n">
-        <v>1096.232460392823</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="N15" t="n">
-        <v>1801.613552969444</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O15" t="n">
-        <v>2363.511000854018</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P15" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q15" t="n">
         <v>2363.511000854018</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1119.097617728343</v>
+        <v>877.2565110743276</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.112134481107</v>
+        <v>707.0513931403168</v>
       </c>
       <c r="D16" t="n">
-        <v>852.4790213836216</v>
+        <v>551.4182800428316</v>
       </c>
       <c r="E16" t="n">
-        <v>696.9202092428241</v>
+        <v>395.8594679020341</v>
       </c>
       <c r="F16" t="n">
-        <v>539.5942744557969</v>
+        <v>238.5335331150071</v>
       </c>
       <c r="G16" t="n">
-        <v>371.5033603692025</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H16" t="n">
-        <v>217.4752705857223</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I16" t="n">
-        <v>89.28690435534146</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J16" t="n">
         <v>70.44261902841252</v>
@@ -5454,34 +5454,34 @@
         <v>963.0719977419543</v>
       </c>
       <c r="P16" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q16" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R16" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S16" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
       <c r="V16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
       <c r="W16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
       <c r="X16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1119.097617728343</v>
+        <v>1062.464529765629</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2081.33627594399</v>
+        <v>1696.317033771161</v>
       </c>
       <c r="C17" t="n">
-        <v>1688.16077444692</v>
+        <v>1303.141532274091</v>
       </c>
       <c r="D17" t="n">
-        <v>1302.719645663588</v>
+        <v>917.7004034907588</v>
       </c>
       <c r="E17" t="n">
-        <v>900.1361207801326</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="F17" t="n">
-        <v>483.2416823101103</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="G17" t="n">
-        <v>70.44261902841252</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="H17" t="n">
-        <v>70.44261902841252</v>
+        <v>194.7584912273439</v>
       </c>
       <c r="I17" t="n">
         <v>70.44261902841252</v>
@@ -5518,13 +5518,13 @@
         <v>245.3460436923002</v>
       </c>
       <c r="K17" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L17" t="n">
         <v>1199.242306705369</v>
       </c>
       <c r="M17" t="n">
-        <v>1807.83354273411</v>
+        <v>1807.833542734109</v>
       </c>
       <c r="N17" t="n">
         <v>2399.247939428137</v>
@@ -5533,34 +5533,34 @@
         <v>2899.346156407833</v>
       </c>
       <c r="P17" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q17" t="n">
         <v>3522.130951420626</v>
       </c>
       <c r="R17" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S17" t="n">
-        <v>3522.130951420626</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T17" t="n">
-        <v>3522.130951420626</v>
+        <v>3126.849361704211</v>
       </c>
       <c r="U17" t="n">
-        <v>3522.130951420626</v>
+        <v>2871.125727517233</v>
       </c>
       <c r="V17" t="n">
-        <v>3238.278625122045</v>
+        <v>2529.018918220752</v>
       </c>
       <c r="W17" t="n">
-        <v>2867.279590090332</v>
+        <v>2158.019883189039</v>
       </c>
       <c r="X17" t="n">
-        <v>2477.826985023389</v>
+        <v>1768.567278122096</v>
       </c>
       <c r="Y17" t="n">
-        <v>2081.33627594399</v>
+        <v>1696.317033771161</v>
       </c>
     </row>
     <row r="18">
@@ -5603,13 +5603,13 @@
         <v>595.4192265750994</v>
       </c>
       <c r="M18" t="n">
-        <v>654.1919160067575</v>
+        <v>1271.515001757311</v>
       </c>
       <c r="N18" t="n">
-        <v>1359.573008583379</v>
+        <v>1976.896094333933</v>
       </c>
       <c r="O18" t="n">
-        <v>1921.470456467953</v>
+        <v>2363.511000854018</v>
       </c>
       <c r="P18" t="n">
         <v>2363.511000854018</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.44261902841252</v>
+        <v>833.6347360566926</v>
       </c>
       <c r="C19" t="n">
-        <v>70.44261902841252</v>
+        <v>833.6347360566926</v>
       </c>
       <c r="D19" t="n">
-        <v>70.44261902841252</v>
+        <v>833.6347360566926</v>
       </c>
       <c r="E19" t="n">
-        <v>70.44261902841252</v>
+        <v>678.0759239158951</v>
       </c>
       <c r="F19" t="n">
-        <v>70.44261902841252</v>
+        <v>520.749989128868</v>
       </c>
       <c r="G19" t="n">
-        <v>70.44261902841252</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="H19" t="n">
-        <v>70.44261902841252</v>
+        <v>198.6309852587933</v>
       </c>
       <c r="I19" t="n">
         <v>70.44261902841252</v>
@@ -5691,34 +5691,34 @@
         <v>963.0719977419543</v>
       </c>
       <c r="P19" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R19" t="n">
-        <v>1056.846859116666</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="S19" t="n">
-        <v>856.873857329772</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="T19" t="n">
-        <v>621.8518574303805</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="U19" t="n">
-        <v>336.4219642075883</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="V19" t="n">
-        <v>70.44261902841252</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="W19" t="n">
-        <v>70.44261902841252</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="X19" t="n">
-        <v>70.44261902841252</v>
+        <v>1018.842754747994</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.44261902841252</v>
+        <v>1018.842754747994</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1806.467938170165</v>
+        <v>2526.010535522881</v>
       </c>
       <c r="C20" t="n">
-        <v>1413.292436673095</v>
+        <v>2132.835034025811</v>
       </c>
       <c r="D20" t="n">
-        <v>1413.292436673095</v>
+        <v>1747.393905242479</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.494508160092</v>
+        <v>1344.810380359023</v>
       </c>
       <c r="F20" t="n">
-        <v>803.6000696900696</v>
+        <v>927.915941889001</v>
       </c>
       <c r="G20" t="n">
-        <v>390.8010064083718</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="H20" t="n">
-        <v>70.44261902841252</v>
+        <v>194.7584912273439</v>
       </c>
       <c r="I20" t="n">
         <v>70.44261902841252</v>
       </c>
       <c r="J20" t="n">
-        <v>245.3460436923003</v>
+        <v>245.3460436923002</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6707812504192</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L20" t="n">
         <v>1199.242306705369</v>
       </c>
       <c r="M20" t="n">
-        <v>1807.833542734109</v>
+        <v>1807.83354273411</v>
       </c>
       <c r="N20" t="n">
-        <v>2399.247939428136</v>
+        <v>2399.247939428137</v>
       </c>
       <c r="O20" t="n">
         <v>2899.346156407833</v>
       </c>
       <c r="P20" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q20" t="n">
         <v>3522.130951420626</v>
@@ -5779,25 +5779,25 @@
         <v>3522.130951420626</v>
       </c>
       <c r="S20" t="n">
-        <v>3363.905033059616</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="T20" t="n">
-        <v>3363.905033059616</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="U20" t="n">
-        <v>3363.905033059616</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="V20" t="n">
-        <v>3363.905033059616</v>
+        <v>3180.024142124144</v>
       </c>
       <c r="W20" t="n">
-        <v>2992.905998027904</v>
+        <v>3180.024142124144</v>
       </c>
       <c r="X20" t="n">
-        <v>2603.453392960961</v>
+        <v>2790.571537057201</v>
       </c>
       <c r="Y20" t="n">
-        <v>2206.962683881562</v>
+        <v>2790.571537057201</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>70.44261902841252</v>
       </c>
       <c r="J21" t="n">
-        <v>70.44261902841252</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K21" t="n">
-        <v>70.44261902841252</v>
+        <v>552.1127299859706</v>
       </c>
       <c r="L21" t="n">
-        <v>420.1366852106107</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="M21" t="n">
-        <v>1096.232460392823</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="N21" t="n">
-        <v>1801.613552969444</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="O21" t="n">
-        <v>2363.511000854018</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P21" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q21" t="n">
         <v>2363.511000854018</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.44261902841252</v>
+        <v>724.3649561099285</v>
       </c>
       <c r="C22" t="n">
-        <v>70.44261902841252</v>
+        <v>724.3649561099285</v>
       </c>
       <c r="D22" t="n">
-        <v>70.44261902841252</v>
+        <v>568.7318430124433</v>
       </c>
       <c r="E22" t="n">
-        <v>70.44261902841252</v>
+        <v>568.7318430124433</v>
       </c>
       <c r="F22" t="n">
-        <v>70.44261902841252</v>
+        <v>411.4059082254162</v>
       </c>
       <c r="G22" t="n">
-        <v>70.44261902841252</v>
+        <v>243.3149941388217</v>
       </c>
       <c r="H22" t="n">
-        <v>70.44261902841252</v>
+        <v>89.28690435534148</v>
       </c>
       <c r="I22" t="n">
-        <v>70.44261902841252</v>
+        <v>89.28690435534148</v>
       </c>
       <c r="J22" t="n">
         <v>70.44261902841252</v>
@@ -5928,34 +5928,34 @@
         <v>963.0719977419543</v>
       </c>
       <c r="P22" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T22" t="n">
-        <v>1119.097617728343</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="U22" t="n">
-        <v>1039.040707184729</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="V22" t="n">
-        <v>773.0613620055531</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="W22" t="n">
-        <v>489.7309599367308</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="X22" t="n">
-        <v>255.6506377197138</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="Y22" t="n">
-        <v>255.6506377197138</v>
+        <v>884.0756178289508</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2086.613754494874</v>
+        <v>1914.386224466828</v>
       </c>
       <c r="C23" t="n">
-        <v>1693.438252997805</v>
+        <v>1521.210722969759</v>
       </c>
       <c r="D23" t="n">
-        <v>1307.997124214473</v>
+        <v>1135.769594186427</v>
       </c>
       <c r="E23" t="n">
-        <v>905.4135993310172</v>
+        <v>1135.769594186427</v>
       </c>
       <c r="F23" t="n">
-        <v>488.5191608609949</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786346</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130501</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U23" t="n">
-        <v>3218.667914569696</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V23" t="n">
-        <v>2876.561105273214</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W23" t="n">
-        <v>2876.561105273214</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X23" t="n">
-        <v>2487.108500206271</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="Y23" t="n">
-        <v>2487.108500206271</v>
+        <v>2314.880970178225</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794193</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M24" t="n">
-        <v>628.3937003794193</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N24" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O24" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3290.528231855213</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="C25" t="n">
-        <v>3120.323113921202</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="D25" t="n">
-        <v>2964.690000823716</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E25" t="n">
-        <v>2809.131188682918</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393173</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393173</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V25" t="n">
-        <v>3798.061577393173</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="W25" t="n">
-        <v>3798.061577393173</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="X25" t="n">
-        <v>3698.848311729871</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="Y25" t="n">
-        <v>3475.736250546514</v>
+        <v>544.4790915731733</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1684.030229611419</v>
+        <v>1606.50357052279</v>
       </c>
       <c r="C26" t="n">
-        <v>1290.854728114349</v>
+        <v>1213.32806902572</v>
       </c>
       <c r="D26" t="n">
-        <v>905.4135993310172</v>
+        <v>1213.32806902572</v>
       </c>
       <c r="E26" t="n">
-        <v>905.4135993310172</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="F26" t="n">
-        <v>488.5191608609949</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G26" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H26" t="n">
         <v>75.96123154786345</v>
@@ -6253,25 +6253,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3798.061577393173</v>
+        <v>3506.047474708723</v>
       </c>
       <c r="U26" t="n">
-        <v>3583.574133797352</v>
+        <v>3506.047474708723</v>
       </c>
       <c r="V26" t="n">
-        <v>3241.467324500871</v>
+        <v>3163.940665412242</v>
       </c>
       <c r="W26" t="n">
-        <v>2870.468289469158</v>
+        <v>2792.941630380529</v>
       </c>
       <c r="X26" t="n">
-        <v>2481.015684402215</v>
+        <v>2403.489025313586</v>
       </c>
       <c r="Y26" t="n">
-        <v>2084.524975322816</v>
+        <v>2006.998316234187</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794193</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2651.80525389589</v>
+        <v>751.5855430072504</v>
       </c>
       <c r="C28" t="n">
-        <v>2651.80525389589</v>
+        <v>677.5047711612945</v>
       </c>
       <c r="D28" t="n">
-        <v>2651.80525389589</v>
+        <v>677.5047711612945</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.80525389589</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F28" t="n">
-        <v>2651.80525389589</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G28" t="n">
-        <v>2651.80525389589</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H28" t="n">
-        <v>2651.80525389589</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>3599.973586051578</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T28" t="n">
-        <v>3365.413743121039</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U28" t="n">
-        <v>3079.989749774445</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V28" t="n">
-        <v>2814.010404595269</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="W28" t="n">
-        <v>2651.80525389589</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="X28" t="n">
-        <v>2651.80525389589</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.80525389589</v>
+        <v>936.7935616985517</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930393</v>
+        <v>1987.608190149231</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333237</v>
+        <v>1594.432688652162</v>
       </c>
       <c r="D29" t="n">
-        <v>490.6126456499915</v>
+        <v>1208.99155986883</v>
       </c>
       <c r="E29" t="n">
-        <v>88.02912076653598</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="F29" t="n">
-        <v>75.96123154786345</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G29" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H29" t="n">
         <v>75.96123154786345</v>
@@ -6475,7 +6475,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
@@ -6493,22 +6493,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116326</v>
+        <v>3389.626155871376</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819845</v>
+        <v>3047.519346574894</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788132</v>
+        <v>2784.593644940027</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721189</v>
+        <v>2784.593644940027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.72402164179</v>
+        <v>2388.102935860628</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>75.96123154786345</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M30" t="n">
-        <v>555.8379692984987</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N30" t="n">
-        <v>1294.106752377725</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O30" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="C31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="D31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="E31" t="n">
-        <v>554.3363259877062</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="F31" t="n">
-        <v>397.0103912006792</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
         <v>75.96123154786345</v>
@@ -6645,28 +6645,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>709.8951381285037</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U31" t="n">
-        <v>709.8951381285037</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V31" t="n">
-        <v>709.8951381285037</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.8951381285037</v>
+        <v>152.9239715200146</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.229275930393</v>
+        <v>1575.0502608361</v>
       </c>
       <c r="C32" t="n">
-        <v>1269.229275930393</v>
+        <v>1181.87475933903</v>
       </c>
       <c r="D32" t="n">
-        <v>883.788147147061</v>
+        <v>796.4336305556981</v>
       </c>
       <c r="E32" t="n">
-        <v>481.2046222636055</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="F32" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G32" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130499</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M32" t="n">
         <v>1942.267504401619</v>
@@ -6727,25 +6727,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116326</v>
+        <v>3474.594165022033</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819845</v>
+        <v>3132.487355725551</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788132</v>
+        <v>2761.488320693839</v>
       </c>
       <c r="X32" t="n">
-        <v>2066.214730721189</v>
+        <v>2372.035715626896</v>
       </c>
       <c r="Y32" t="n">
-        <v>1669.72402164179</v>
+        <v>1975.545006547497</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.29381304741</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.15829400933012</v>
+        <v>708.202316438962</v>
       </c>
       <c r="C34" t="n">
-        <v>87.15829400933012</v>
+        <v>708.202316438962</v>
       </c>
       <c r="D34" t="n">
-        <v>87.15829400933012</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="E34" t="n">
-        <v>87.15829400933012</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="F34" t="n">
-        <v>87.15829400933012</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G34" t="n">
-        <v>87.15829400933012</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I34" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
         <v>188.6896288950475</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T34" t="n">
-        <v>677.8675552895655</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U34" t="n">
-        <v>392.4435619429715</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V34" t="n">
-        <v>126.4642167637957</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="W34" t="n">
-        <v>87.15829400933012</v>
+        <v>893.4103351302633</v>
       </c>
       <c r="X34" t="n">
-        <v>87.15829400933012</v>
+        <v>893.4103351302633</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.15829400933012</v>
+        <v>893.4103351302633</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2404.502628619254</v>
+        <v>2001.919103735798</v>
       </c>
       <c r="C35" t="n">
-        <v>2011.327127122184</v>
+        <v>1608.743602238729</v>
       </c>
       <c r="D35" t="n">
-        <v>1625.885998338852</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="E35" t="n">
         <v>1223.302473455396</v>
@@ -6931,10 +6931,10 @@
         <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
         <v>270.9233280874836</v>
@@ -6946,7 +6946,7 @@
         <v>1292.177839612517</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
         <v>2575.851817818622</v>
@@ -6964,25 +6964,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340869</v>
+        <v>3721.821237965385</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585819</v>
+        <v>3500.968262210335</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3500.968262210335</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3158.861452913853</v>
       </c>
       <c r="W35" t="n">
-        <v>2804.99737433065</v>
+        <v>2787.862417882141</v>
       </c>
       <c r="X35" t="n">
-        <v>2804.99737433065</v>
+        <v>2398.409812815197</v>
       </c>
       <c r="Y35" t="n">
-        <v>2804.99737433065</v>
+        <v>2001.919103735798</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786346</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L36" t="n">
-        <v>313.8895596758443</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.025029968184</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2651.805253895891</v>
+        <v>834.9050069050093</v>
       </c>
       <c r="C37" t="n">
-        <v>2651.805253895891</v>
+        <v>834.9050069050093</v>
       </c>
       <c r="D37" t="n">
-        <v>2651.805253895891</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.805253895891</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F37" t="n">
-        <v>2651.805253895891</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G37" t="n">
-        <v>2651.805253895891</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H37" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S37" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T37" t="n">
-        <v>3720.619316707501</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U37" t="n">
-        <v>3435.195323360907</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V37" t="n">
-        <v>3169.215978181731</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="W37" t="n">
-        <v>2885.885576112908</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="X37" t="n">
-        <v>2651.805253895891</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="Y37" t="n">
-        <v>2651.805253895891</v>
+        <v>999.105493861789</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2519.522183495031</v>
+        <v>1764.067163279179</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.346681997961</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="D38" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E38" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F38" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H38" t="n">
         <v>190.9807864236407</v>
@@ -7174,7 +7174,7 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K38" t="n">
         <v>705.3108151130496</v>
@@ -7204,22 +7204,22 @@
         <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3798.061577393173</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U38" t="n">
-        <v>3798.061577393173</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V38" t="n">
-        <v>3798.061577393173</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="W38" t="n">
-        <v>3705.96024335277</v>
+        <v>2950.505223136919</v>
       </c>
       <c r="X38" t="n">
-        <v>3316.507638285826</v>
+        <v>2561.052618069975</v>
       </c>
       <c r="Y38" t="n">
-        <v>2920.016929206427</v>
+        <v>2164.561908990576</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>75.96123154786346</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M39" t="n">
-        <v>555.8379692984987</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N39" t="n">
-        <v>1294.106752377725</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O39" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.9046127509083</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="C40" t="n">
-        <v>171.9046127509083</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="D40" t="n">
-        <v>171.9046127509083</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="E40" t="n">
-        <v>171.9046127509083</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="F40" t="n">
-        <v>171.9046127509083</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="G40" t="n">
-        <v>171.9046127509083</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H40" t="n">
-        <v>171.9046127509083</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J40" t="n">
         <v>75.96123154786346</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>912.4273982201044</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U40" t="n">
-        <v>912.4273982201044</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V40" t="n">
-        <v>912.4273982201044</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="W40" t="n">
-        <v>629.0969961512819</v>
+        <v>704.3273100457845</v>
       </c>
       <c r="X40" t="n">
-        <v>395.016673934265</v>
+        <v>470.2469878287676</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.9046127509083</v>
+        <v>247.134926645411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1799.049784487196</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="C41" t="n">
-        <v>1405.874282990127</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D41" t="n">
-        <v>1020.433154206794</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E41" t="n">
-        <v>1020.433154206794</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F41" t="n">
-        <v>603.5387157367721</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G41" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J41" t="n">
         <v>270.9233280874836</v>
@@ -7417,13 +7417,13 @@
         <v>705.3108151130497</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.26750440162</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
@@ -7438,25 +7438,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T41" t="n">
-        <v>3698.593688673129</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U41" t="n">
-        <v>3698.593688673129</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V41" t="n">
-        <v>3356.486879376648</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W41" t="n">
-        <v>2985.487844344935</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X41" t="n">
-        <v>2596.035239277992</v>
+        <v>2066.214730721189</v>
       </c>
       <c r="Y41" t="n">
-        <v>2199.544530198593</v>
+        <v>2011.327127122184</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3489583586882</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.255099689836</v>
+        <v>784.0967018402031</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.255099689836</v>
+        <v>1522.365484919429</v>
       </c>
       <c r="O42" t="n">
-        <v>1611.238359252428</v>
+        <v>2114.348744482021</v>
       </c>
       <c r="P42" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>553.4975516656557</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="C43" t="n">
-        <v>553.4975516656557</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="D43" t="n">
-        <v>397.8644385681704</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="E43" t="n">
-        <v>242.3056264273729</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="F43" t="n">
-        <v>84.97969164034589</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K43" t="n">
         <v>188.6896288950475</v>
@@ -7596,25 +7596,25 @@
         <v>1222.217555045146</v>
       </c>
       <c r="S43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T43" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U43" t="n">
-        <v>738.705570356957</v>
+        <v>1069.979927627316</v>
       </c>
       <c r="V43" t="n">
-        <v>738.705570356957</v>
+        <v>1069.979927627316</v>
       </c>
       <c r="W43" t="n">
-        <v>738.705570356957</v>
+        <v>786.6495255584937</v>
       </c>
       <c r="X43" t="n">
-        <v>738.705570356957</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="Y43" t="n">
-        <v>738.705570356957</v>
+        <v>552.5692033414767</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1269.229275930393</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C44" t="n">
-        <v>876.0537744333237</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D44" t="n">
-        <v>490.6126456499915</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E44" t="n">
-        <v>490.6126456499915</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F44" t="n">
-        <v>490.6126456499915</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G44" t="n">
-        <v>490.6126456499915</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H44" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I44" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
         <v>705.3108151130497</v>
@@ -7660,7 +7660,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
@@ -7678,22 +7678,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585818</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="U44" t="n">
-        <v>3168.773180116326</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819845</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.667335788132</v>
+        <v>3590.940688476993</v>
       </c>
       <c r="X44" t="n">
-        <v>2066.214730721189</v>
+        <v>3201.48808341005</v>
       </c>
       <c r="Y44" t="n">
-        <v>1669.72402164179</v>
+        <v>2804.99737433065</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L45" t="n">
-        <v>999.3489583586882</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M45" t="n">
         <v>1019.255099689836</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="C46" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="E46" t="n">
-        <v>75.96123154786345</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F46" t="n">
-        <v>75.96123154786345</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G46" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H46" t="n">
         <v>75.96123154786345</v>
@@ -7833,25 +7833,25 @@
         <v>1222.217555045146</v>
       </c>
       <c r="S46" t="n">
-        <v>1053.13745122537</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T46" t="n">
-        <v>818.577608294831</v>
+        <v>789.5697207730121</v>
       </c>
       <c r="U46" t="n">
-        <v>533.153614948237</v>
+        <v>789.5697207730121</v>
       </c>
       <c r="V46" t="n">
-        <v>533.153614948237</v>
+        <v>789.5697207730121</v>
       </c>
       <c r="W46" t="n">
-        <v>533.153614948237</v>
+        <v>789.5697207730121</v>
       </c>
       <c r="X46" t="n">
-        <v>299.0732927312201</v>
+        <v>789.5697207730121</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.96123154786345</v>
+        <v>739.5443446790075</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>447.734504297346</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,10 +8066,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>351.5705978518757</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,7 +8227,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>186.088840441687</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>301.2346582324069</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,22 +8531,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M9" t="n">
-        <v>384.8576652182069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8768,16 +8768,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>64.24358084136351</v>
+        <v>64.24358084136352</v>
       </c>
       <c r="K12" t="n">
-        <v>58.48873841560189</v>
+        <v>58.48873841560192</v>
       </c>
       <c r="L12" t="n">
-        <v>48.23153711108624</v>
+        <v>401.4578665880542</v>
       </c>
       <c r="M12" t="n">
-        <v>633.2206285370031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8786,10 +8786,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>50.29631868833736</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.39698703445769</v>
+        <v>66.39698703445772</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>64.24358084136351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>58.48873841560189</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>401.4578665880541</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>43.5748740134224</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>59.28140949005268</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>50.29631868833732</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.39698703445769</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>64.24358084136351</v>
+        <v>64.24358084136352</v>
       </c>
       <c r="K18" t="n">
-        <v>58.48873841560189</v>
+        <v>58.48873841560192</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>102.9412269746932</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>437.3721459863557</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>50.29631868833736</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.39698703445769</v>
+        <v>66.39698703445772</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>64.24358084136351</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>58.48873841560189</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>401.4578665880541</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>635.1615133267187</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>35.26794985814428</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>46.85203839031006</v>
       </c>
       <c r="P21" t="n">
-        <v>50.29631868833733</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.39698703445769</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,16 +9728,16 @@
         <v>11.21154561935388</v>
       </c>
       <c r="N24" t="n">
-        <v>674.4854867224884</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660666</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404697</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>495.9355231452481</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>475.5922457074681</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,25 +10667,25 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737965</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>20.49834389404698</v>
+        <v>454.0922354722276</v>
       </c>
       <c r="M39" t="n">
-        <v>495.9355231452481</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11065,7 +11065,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987031</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406337</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>37.8634889524823</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404697</v>
       </c>
       <c r="M42" t="n">
-        <v>31.31875908515959</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>2.048060461573954</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>266.23754277355</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>50.0926368599559</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>454.0922354722276</v>
       </c>
       <c r="M45" t="n">
-        <v>31.31875908515959</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573954</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>317.1548035061597</v>
       </c>
       <c r="I11" t="n">
         <v>123.0727134769421</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.99566033642636</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>156.6436591773999</v>
@@ -23314,7 +23314,7 @@
         <v>219.6894543054248</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1663978451077</v>
+        <v>16.3490087188259</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23323,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>65.34175404345098</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23427,7 +23427,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4100049457286</v>
@@ -23439,7 +23439,7 @@
         <v>126.906482568077</v>
       </c>
       <c r="J13" t="n">
-        <v>18.65584247365965</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>115.3999737951352</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.6717799003976</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V13" t="n">
-        <v>53.77172276957523</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>202.5607895997892</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>408.6710726488808</v>
       </c>
       <c r="H14" t="n">
-        <v>317.1548035061597</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>123.0727134769421</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T14" t="n">
         <v>219.6894543054248</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>180.6436005238766</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>223.2860631359854</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6274383399072</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>126.906482568077</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>115.3999737951352</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9732717690249</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T16" t="n">
-        <v>232.6717799003976</v>
+        <v>176.6050228173112</v>
       </c>
       <c r="U16" t="n">
         <v>282.5755942905643</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.6710726488808</v>
       </c>
       <c r="H17" t="n">
-        <v>317.1548035061597</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>123.0727134769421</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.99566033642636</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.6894543054248</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1663978451077</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>57.67193816792081</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>320.9980600811788</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23898,22 +23898,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>126.906482568077</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.65584247365965</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.77172276957525</v>
+        <v>16.14765944459025</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6717799003976</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>134.5744067353057</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>207.6877404067475</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>123.0727134769421</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.99566033642637</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T20" t="n">
         <v>219.6894543054248</v>
@@ -24028,16 +24028,16 @@
         <v>253.1663978451077</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>25.24238340255613</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>126.906482568077</v>
       </c>
       <c r="J22" t="n">
-        <v>18.65584247365965</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>115.3999737951352</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9732717690249</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T22" t="n">
-        <v>232.6717799003976</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.3192528523867</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200.5269098032996</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>49.39578710883552</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>124.3200171252431</v>
       </c>
       <c r="X25" t="n">
-        <v>133.5183859881772</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>113.8693593270194</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>80.75425161167601</v>
       </c>
       <c r="U26" t="n">
-        <v>40.80473087493505</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>95.16310262717428</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>11.085091836852</v>
@@ -24651,19 +24651,19 @@
         <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>119.913998855749</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>400.7782837588362</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.8693593270194</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>106.9926000628771</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>90.10980962030304</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
         <v>123.6862121416195</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>31.70730701054882</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>125.4038966037568</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>84.1183290591498</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>241.5842345212132</v>
+        <v>187.1921948336341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>75.72583123827114</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>345.836738157093</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>20.79745641717633</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>11.085091836852</v>
@@ -25365,22 +25365,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>155.5464064224178</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>51.60376713505855</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>276.1087239813961</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>180.196902550549</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25563,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
-        <v>39.78735658745708</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5697534131281</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>120.1712361646566</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>338.1870744255903</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>157.3746467011751</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>123.6862121416195</v>
@@ -25836,22 +25836,22 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>131.8545022694768</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>18.0744447490481</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>164.7985332422629</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26034,13 +26034,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>123.6862121416195</v>
@@ -26073,13 +26073,13 @@
         <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>28.71780864660059</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26088,10 +26088,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>171.3558182384585</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678776.5189771933</v>
+        <v>678776.5189771932</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678776.5189771933</v>
+        <v>678776.5189771932</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678776.5189771933</v>
+        <v>678776.5189771932</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678776.5189771932</v>
+        <v>678776.5189771933</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678776.5189771932</v>
+        <v>678776.5189771933</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678776.5189771932</v>
+        <v>678776.518977193</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678776.5189771933</v>
+        <v>678776.518977193</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613991</v>
       </c>
       <c r="C2" t="n">
-        <v>504930.098661399</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="D2" t="n">
         <v>504930.0986613991</v>
@@ -26331,19 +26331,19 @@
         <v>384457.1679167033</v>
       </c>
       <c r="H2" t="n">
-        <v>384457.1679167033</v>
+        <v>384457.1679167032</v>
       </c>
       <c r="I2" t="n">
-        <v>403176.5638757028</v>
+        <v>403176.5638757026</v>
       </c>
       <c r="J2" t="n">
+        <v>403176.5638757029</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403176.5638757026</v>
+      </c>
+      <c r="L2" t="n">
         <v>403176.5638757027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>403176.5638757028</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403176.5638757029</v>
       </c>
       <c r="M2" t="n">
         <v>403176.5638757027</v>
@@ -26352,10 +26352,10 @@
         <v>403176.5638757027</v>
       </c>
       <c r="O2" t="n">
-        <v>403176.5638757024</v>
+        <v>403176.5638757027</v>
       </c>
       <c r="P2" t="n">
-        <v>403176.5638757028</v>
+        <v>403176.5638757029</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158280.8457253088</v>
+        <v>158280.8457253086</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63043.8692639291</v>
+        <v>63043.86926392917</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656033</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72050.01288964314</v>
+        <v>72050.012889643</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>223021.8565516675</v>
       </c>
       <c r="D4" t="n">
-        <v>223021.8565516676</v>
+        <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
         <v>75974.55069746131</v>
       </c>
       <c r="F4" t="n">
-        <v>75974.55069746131</v>
+        <v>75974.55069746129</v>
       </c>
       <c r="G4" t="n">
-        <v>75974.55069746131</v>
+        <v>75974.55069746129</v>
       </c>
       <c r="H4" t="n">
-        <v>75974.55069746131</v>
+        <v>75974.55069746129</v>
       </c>
       <c r="I4" t="n">
+        <v>74648.49911963029</v>
+      </c>
+      <c r="J4" t="n">
         <v>74648.49911963027</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>74648.49911963029</v>
       </c>
-      <c r="K4" t="n">
-        <v>74648.49911963027</v>
-      </c>
       <c r="L4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="M4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="N4" t="n">
-        <v>74648.49911963027</v>
+        <v>74648.49911963029</v>
       </c>
       <c r="O4" t="n">
         <v>74648.49911963029</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="F5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="G5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="H5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
         <v>60977.55903357454</v>
@@ -26499,16 +26499,16 @@
         <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
+        <v>60977.55903357455</v>
+      </c>
+      <c r="M5" t="n">
         <v>60977.55903357454</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60977.55903357455</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357455</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="P5" t="n">
         <v>60977.55903357454</v>
@@ -26524,46 +26524,46 @@
         <v>14126.97884081351</v>
       </c>
       <c r="C6" t="n">
-        <v>212322.7848325584</v>
+        <v>212322.7848325585</v>
       </c>
       <c r="D6" t="n">
         <v>212322.7848325584</v>
       </c>
       <c r="E6" t="n">
-        <v>94712.89111090418</v>
+        <v>94282.63064395897</v>
       </c>
       <c r="F6" t="n">
-        <v>252993.7368362129</v>
+        <v>252563.4763692676</v>
       </c>
       <c r="G6" t="n">
-        <v>252993.7368362129</v>
+        <v>252563.4763692676</v>
       </c>
       <c r="H6" t="n">
-        <v>252993.7368362129</v>
+        <v>252563.4763692674</v>
       </c>
       <c r="I6" t="n">
-        <v>204506.6364585689</v>
+        <v>204143.2309771911</v>
       </c>
       <c r="J6" t="n">
-        <v>112811.0713568946</v>
+        <v>112447.6658755171</v>
       </c>
       <c r="K6" t="n">
-        <v>267550.505722498</v>
+        <v>267187.1002411202</v>
       </c>
       <c r="L6" t="n">
-        <v>267550.5057224981</v>
+        <v>267187.1002411204</v>
       </c>
       <c r="M6" t="n">
-        <v>195500.4928328548</v>
+        <v>195137.0873514774</v>
       </c>
       <c r="N6" t="n">
-        <v>267550.5057224979</v>
+        <v>267187.1002411203</v>
       </c>
       <c r="O6" t="n">
-        <v>267550.5057224976</v>
+        <v>267187.1002411203</v>
       </c>
       <c r="P6" t="n">
-        <v>267550.5057224979</v>
+        <v>267187.1002411206</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.56375786401757</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="F3" t="n">
-        <v>89.56375786401756</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="G3" t="n">
-        <v>89.56375786401757</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="H3" t="n">
-        <v>89.56375786401755</v>
+        <v>89.56375786401746</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="F4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="G4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="H4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="J4" t="n">
         <v>949.5153943482932</v>
@@ -26819,16 +26819,16 @@
         <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="M4" t="n">
         <v>949.5153943482932</v>
-      </c>
-      <c r="M4" t="n">
-        <v>949.5153943482933</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482933</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="P4" t="n">
         <v>949.5153943482932</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.56375786401757</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59.38225393407059</v>
+        <v>59.38225393407068</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.1206115858618</v>
+        <v>289.1206115858615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>68.98265649313669</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692947</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1206115858619</v>
+        <v>289.1206115858614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1206115858618</v>
+        <v>289.1206115858615</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.40774585269116</v>
+        <v>129.8045513207119</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27444,10 +27444,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>101.6772113813383</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27596,13 +27596,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27624,16 +27624,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>57.71091283897437</v>
       </c>
       <c r="H5" t="n">
-        <v>29.16572796383002</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>101.0403972573646</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>37.20039842073831</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27906,7 +27906,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27918,10 +27918,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>240.0038825143267</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>10.80292831169538</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>146.7124589214579</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3600553079960503</v>
+        <v>0.3600553079960499</v>
       </c>
       <c r="H11" t="n">
-        <v>3.687416423014551</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I11" t="n">
-        <v>13.88103226151774</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J11" t="n">
-        <v>30.5592441970298</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K11" t="n">
-        <v>45.80038538450262</v>
+        <v>45.80038538450257</v>
       </c>
       <c r="L11" t="n">
-        <v>56.81942801658676</v>
+        <v>56.81942801658669</v>
       </c>
       <c r="M11" t="n">
-        <v>63.22256160016151</v>
+        <v>63.22256160016144</v>
       </c>
       <c r="N11" t="n">
-        <v>64.2455687440053</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O11" t="n">
-        <v>60.66526877511956</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P11" t="n">
-        <v>51.77640335896707</v>
+        <v>51.77640335896701</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.8819226413585</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R11" t="n">
-        <v>22.61732424090691</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S11" t="n">
-        <v>8.204760330960005</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T11" t="n">
-        <v>1.576142110752711</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02880442463968402</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1926465735188303</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860560328458177</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I12" t="n">
-        <v>6.63278772860885</v>
+        <v>6.632787728608842</v>
       </c>
       <c r="J12" t="n">
-        <v>18.20087649196984</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K12" t="n">
-        <v>31.10819691773147</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L12" t="n">
-        <v>41.82880974583199</v>
+        <v>41.82880974583194</v>
       </c>
       <c r="M12" t="n">
-        <v>48.81224803588957</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N12" t="n">
-        <v>50.10416299602244</v>
+        <v>50.10416299602238</v>
       </c>
       <c r="O12" t="n">
-        <v>45.83552049857888</v>
+        <v>45.83552049857883</v>
       </c>
       <c r="P12" t="n">
-        <v>36.78704613097734</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.5911661214563</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R12" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S12" t="n">
-        <v>3.578325609001077</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7765008818587936</v>
+        <v>0.7765008818587927</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1615084158203595</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H13" t="n">
-        <v>1.435956642475561</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I13" t="n">
-        <v>4.856998541215905</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J13" t="n">
-        <v>11.41864499849942</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K13" t="n">
-        <v>18.7643414016745</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L13" t="n">
-        <v>24.01189665751055</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M13" t="n">
-        <v>25.31717830900417</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N13" t="n">
-        <v>24.71519239549195</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O13" t="n">
-        <v>22.82848044704501</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P13" t="n">
-        <v>19.53370876430966</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.52412743746665</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R13" t="n">
-        <v>7.262005678613619</v>
+        <v>7.262005678613611</v>
       </c>
       <c r="S13" t="n">
-        <v>2.814651210251174</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T13" t="n">
-        <v>0.690081413050627</v>
+        <v>0.6900814130506262</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008809549953837804</v>
+        <v>0.008809549953837793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3600553079960502</v>
+        <v>0.3600553079960499</v>
       </c>
       <c r="H14" t="n">
-        <v>3.68741642301455</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I14" t="n">
-        <v>13.88103226151774</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J14" t="n">
-        <v>30.55924419702979</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K14" t="n">
-        <v>45.80038538450261</v>
+        <v>45.80038538450257</v>
       </c>
       <c r="L14" t="n">
-        <v>56.81942801658674</v>
+        <v>56.81942801658669</v>
       </c>
       <c r="M14" t="n">
-        <v>63.2225616001615</v>
+        <v>63.22256160016144</v>
       </c>
       <c r="N14" t="n">
-        <v>64.24556874400528</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O14" t="n">
-        <v>60.66526877511956</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P14" t="n">
-        <v>51.77640335896706</v>
+        <v>51.77640335896701</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.88192264135849</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R14" t="n">
-        <v>22.61732424090691</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S14" t="n">
-        <v>8.204760330960003</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T14" t="n">
-        <v>1.576142110752711</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02880442463968401</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1926465735188302</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H15" t="n">
-        <v>1.860560328458176</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I15" t="n">
-        <v>6.632787728608848</v>
+        <v>6.632787728608842</v>
       </c>
       <c r="J15" t="n">
-        <v>18.20087649196984</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K15" t="n">
-        <v>31.10819691773146</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L15" t="n">
-        <v>41.82880974583198</v>
+        <v>41.82880974583194</v>
       </c>
       <c r="M15" t="n">
-        <v>48.81224803588957</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N15" t="n">
-        <v>50.10416299602243</v>
+        <v>50.10416299602238</v>
       </c>
       <c r="O15" t="n">
-        <v>45.83552049857887</v>
+        <v>45.83552049857883</v>
       </c>
       <c r="P15" t="n">
-        <v>36.78704613097733</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.5911661214563</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R15" t="n">
-        <v>11.96098638040597</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S15" t="n">
-        <v>3.578325609001077</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7765008818587935</v>
+        <v>0.7765008818587927</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1615084158203595</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H16" t="n">
-        <v>1.435956642475561</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I16" t="n">
-        <v>4.856998541215904</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J16" t="n">
-        <v>11.41864499849942</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K16" t="n">
-        <v>18.76434140167449</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L16" t="n">
-        <v>24.01189665751054</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M16" t="n">
-        <v>25.31717830900417</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N16" t="n">
-        <v>24.71519239549194</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O16" t="n">
-        <v>22.82848044704501</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P16" t="n">
-        <v>19.53370876430965</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.52412743746665</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R16" t="n">
-        <v>7.262005678613618</v>
+        <v>7.262005678613611</v>
       </c>
       <c r="S16" t="n">
-        <v>2.814651210251173</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6900814130506269</v>
+        <v>0.6900814130506262</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008809549953837802</v>
+        <v>0.008809549953837793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3600553079960503</v>
+        <v>0.3600553079960499</v>
       </c>
       <c r="H17" t="n">
-        <v>3.687416423014551</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I17" t="n">
-        <v>13.88103226151774</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J17" t="n">
-        <v>30.5592441970298</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K17" t="n">
-        <v>45.80038538450262</v>
+        <v>45.80038538450257</v>
       </c>
       <c r="L17" t="n">
-        <v>56.81942801658676</v>
+        <v>56.81942801658669</v>
       </c>
       <c r="M17" t="n">
-        <v>63.22256160016151</v>
+        <v>63.22256160016144</v>
       </c>
       <c r="N17" t="n">
-        <v>64.2455687440053</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O17" t="n">
-        <v>60.66526877511956</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P17" t="n">
-        <v>51.77640335896707</v>
+        <v>51.77640335896701</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.8819226413585</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R17" t="n">
-        <v>22.61732424090691</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S17" t="n">
-        <v>8.204760330960005</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T17" t="n">
-        <v>1.576142110752711</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02880442463968402</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1926465735188303</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H18" t="n">
-        <v>1.860560328458177</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I18" t="n">
-        <v>6.63278772860885</v>
+        <v>6.632787728608842</v>
       </c>
       <c r="J18" t="n">
-        <v>18.20087649196984</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K18" t="n">
-        <v>31.10819691773147</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L18" t="n">
-        <v>41.82880974583199</v>
+        <v>41.82880974583194</v>
       </c>
       <c r="M18" t="n">
-        <v>48.81224803588957</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N18" t="n">
-        <v>50.10416299602244</v>
+        <v>50.10416299602238</v>
       </c>
       <c r="O18" t="n">
-        <v>45.83552049857888</v>
+        <v>45.83552049857883</v>
       </c>
       <c r="P18" t="n">
-        <v>36.78704613097734</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.5911661214563</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R18" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S18" t="n">
-        <v>3.578325609001077</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7765008818587936</v>
+        <v>0.7765008818587927</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1615084158203595</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H19" t="n">
-        <v>1.435956642475561</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I19" t="n">
-        <v>4.856998541215905</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J19" t="n">
-        <v>11.41864499849942</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K19" t="n">
-        <v>18.7643414016745</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L19" t="n">
-        <v>24.01189665751055</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31717830900417</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N19" t="n">
-        <v>24.71519239549195</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O19" t="n">
-        <v>22.82848044704501</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P19" t="n">
-        <v>19.53370876430966</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.52412743746665</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R19" t="n">
-        <v>7.262005678613619</v>
+        <v>7.262005678613611</v>
       </c>
       <c r="S19" t="n">
-        <v>2.814651210251174</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T19" t="n">
-        <v>0.690081413050627</v>
+        <v>0.6900814130506262</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008809549953837804</v>
+        <v>0.008809549953837793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3600553079960502</v>
+        <v>0.3600553079960498</v>
       </c>
       <c r="H20" t="n">
-        <v>3.68741642301455</v>
+        <v>3.687416423014546</v>
       </c>
       <c r="I20" t="n">
-        <v>13.88103226151774</v>
+        <v>13.88103226151772</v>
       </c>
       <c r="J20" t="n">
-        <v>30.55924419702979</v>
+        <v>30.55924419702976</v>
       </c>
       <c r="K20" t="n">
-        <v>45.8003853845026</v>
+        <v>45.80038538450256</v>
       </c>
       <c r="L20" t="n">
-        <v>56.81942801658673</v>
+        <v>56.81942801658668</v>
       </c>
       <c r="M20" t="n">
-        <v>63.22256160016149</v>
+        <v>63.22256160016143</v>
       </c>
       <c r="N20" t="n">
-        <v>64.24556874400527</v>
+        <v>64.24556874400521</v>
       </c>
       <c r="O20" t="n">
-        <v>60.66526877511954</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P20" t="n">
-        <v>51.77640335896704</v>
+        <v>51.776403358967</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.88192264135849</v>
+        <v>38.88192264135845</v>
       </c>
       <c r="R20" t="n">
-        <v>22.61732424090691</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S20" t="n">
-        <v>8.204760330960001</v>
+        <v>8.204760330959994</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57614211075271</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02880442463968401</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1926465735188302</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H21" t="n">
-        <v>1.860560328458176</v>
+        <v>1.860560328458174</v>
       </c>
       <c r="I21" t="n">
-        <v>6.632787728608847</v>
+        <v>6.632787728608841</v>
       </c>
       <c r="J21" t="n">
-        <v>18.20087649196983</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K21" t="n">
-        <v>31.10819691773145</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L21" t="n">
-        <v>41.82880974583198</v>
+        <v>41.82880974583193</v>
       </c>
       <c r="M21" t="n">
-        <v>48.81224803588955</v>
+        <v>48.81224803588951</v>
       </c>
       <c r="N21" t="n">
-        <v>50.10416299602242</v>
+        <v>50.10416299602237</v>
       </c>
       <c r="O21" t="n">
-        <v>45.83552049857887</v>
+        <v>45.83552049857882</v>
       </c>
       <c r="P21" t="n">
-        <v>36.78704613097732</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.59116612145629</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R21" t="n">
-        <v>11.96098638040597</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S21" t="n">
-        <v>3.578325609001076</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7765008818587934</v>
+        <v>0.7765008818587926</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01267411667887041</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1615084158203595</v>
+        <v>0.1615084158203593</v>
       </c>
       <c r="H22" t="n">
-        <v>1.435956642475561</v>
+        <v>1.435956642475559</v>
       </c>
       <c r="I22" t="n">
-        <v>4.856998541215903</v>
+        <v>4.856998541215899</v>
       </c>
       <c r="J22" t="n">
-        <v>11.41864499849942</v>
+        <v>11.4186449984994</v>
       </c>
       <c r="K22" t="n">
-        <v>18.76434140167449</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L22" t="n">
-        <v>24.01189665751054</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31717830900417</v>
+        <v>25.31717830900414</v>
       </c>
       <c r="N22" t="n">
-        <v>24.71519239549194</v>
+        <v>24.71519239549191</v>
       </c>
       <c r="O22" t="n">
-        <v>22.828480447045</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P22" t="n">
-        <v>19.53370876430965</v>
+        <v>19.53370876430963</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.52412743746665</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R22" t="n">
-        <v>7.262005678613617</v>
+        <v>7.26200567861361</v>
       </c>
       <c r="S22" t="n">
-        <v>2.814651210251173</v>
+        <v>2.81465121025117</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6900814130506268</v>
+        <v>0.6900814130506261</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0088095499538378</v>
+        <v>0.008809549953837792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H26" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,13 +32964,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529577</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>13.64465223657863</v>
@@ -32979,7 +32979,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I27" t="n">
         <v>11.03043577938672</v>
@@ -33028,37 +33028,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085105</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287126</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995803</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259272</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425366</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948266</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595809</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R27" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H28" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673371</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J28" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L28" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257736</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P28" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.49084778151131</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R28" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H29" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,13 +33201,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529577</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>13.64465223657863</v>
@@ -33216,7 +33216,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I30" t="n">
         <v>11.03043577938672</v>
@@ -33265,37 +33265,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085105</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287126</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995803</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259272</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425366</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948266</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595809</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R30" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T30" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673371</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257736</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P31" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.49084778151131</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R31" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H41" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086072</v>
@@ -34149,13 +34149,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S41" t="n">
         <v>13.64465223657863</v>
@@ -34164,7 +34164,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I42" t="n">
         <v>11.03043577938672</v>
@@ -34213,37 +34213,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R42" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H43" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J43" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P43" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R43" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999189</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,13 +34386,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
         <v>13.64465223657863</v>
@@ -34401,7 +34401,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
         <v>11.03043577938672</v>
@@ -34450,37 +34450,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927759</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>298.6160129595619</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>259.1834758025638</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,7 +34947,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>93.70171839237511</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>151.5096066346797</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M9" t="n">
-        <v>292.470543168895</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K11" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L11" t="n">
         <v>555.1227529847977</v>
@@ -35424,10 +35424,10 @@
         <v>597.3882794889164</v>
       </c>
       <c r="O11" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P11" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q11" t="n">
         <v>225.5946096524176</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>353.2263294769679</v>
       </c>
       <c r="M12" t="n">
-        <v>589.6457545235808</v>
+        <v>682.9250254365776</v>
       </c>
       <c r="N12" t="n">
         <v>712.5061541177993</v>
@@ -35506,7 +35506,7 @@
         <v>567.573179681388</v>
       </c>
       <c r="P12" t="n">
-        <v>446.5056003899646</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L13" t="n">
         <v>189.7973914795305</v>
@@ -35588,7 +35588,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K14" t="n">
         <v>408.4088258162822</v>
@@ -35661,10 +35661,10 @@
         <v>597.3882794889164</v>
       </c>
       <c r="O14" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P14" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q14" t="n">
         <v>225.5946096524176</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L15" t="n">
-        <v>353.2263294769679</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M15" t="n">
-        <v>682.9250254365776</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>712.5061541177993</v>
+        <v>24.01345963190841</v>
       </c>
       <c r="O15" t="n">
         <v>567.573179681388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>261.3235818334669</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L16" t="n">
         <v>189.7973914795305</v>
@@ -35825,7 +35825,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K17" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L17" t="n">
         <v>555.1227529847977</v>
@@ -35898,10 +35898,10 @@
         <v>597.3882794889164</v>
       </c>
       <c r="O17" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P17" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q17" t="n">
         <v>225.5946096524176</v>
@@ -35971,16 +35971,16 @@
         <v>530.27940156231</v>
       </c>
       <c r="M18" t="n">
-        <v>59.36635296127085</v>
+        <v>682.9250254365776</v>
       </c>
       <c r="N18" t="n">
         <v>712.5061541177993</v>
       </c>
       <c r="O18" t="n">
-        <v>567.573179681388</v>
+        <v>390.5201075960457</v>
       </c>
       <c r="P18" t="n">
-        <v>446.5056003899646</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L19" t="n">
         <v>189.7973914795305</v>
@@ -36062,7 +36062,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K20" t="n">
         <v>408.4088258162822</v>
@@ -36129,16 +36129,16 @@
         <v>555.1227529847977</v>
       </c>
       <c r="M20" t="n">
-        <v>614.738622251253</v>
+        <v>614.7386222512529</v>
       </c>
       <c r="N20" t="n">
         <v>597.3882794889164</v>
       </c>
       <c r="O20" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P20" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q20" t="n">
         <v>225.5946096524176</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L21" t="n">
-        <v>353.2263294769679</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M21" t="n">
-        <v>682.9250254365776</v>
+        <v>591.5866393132962</v>
       </c>
       <c r="N21" t="n">
-        <v>712.5061541177993</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>567.573179681388</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>261.3235818334668</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L22" t="n">
         <v>189.7973914795305</v>
@@ -36293,13 +36293,13 @@
         <v>209.7552267704507</v>
       </c>
       <c r="O22" t="n">
-        <v>187.1767299841239</v>
+        <v>187.1767299841238</v>
       </c>
       <c r="P22" t="n">
         <v>140.6207449022678</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.98089144761913</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793493</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>672.4374262609144</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P24" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793493</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414314</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36770,7 +36770,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373314</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
         <v>25.94761179166379</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>484.7239775258942</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P30" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P31" t="n">
-        <v>153.5719171373314</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
         <v>25.94761179166379</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143696</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="O33" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143696</v>
+        <v>20.1072134658057</v>
       </c>
       <c r="O36" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>433.5938915781806</v>
       </c>
       <c r="M39" t="n">
-        <v>484.7239775258942</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>597.9628884470628</v>
@@ -37642,7 +37642,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418865</v>
+        <v>592.794974241887</v>
       </c>
       <c r="M41" t="n">
         <v>656.6562270596987</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>20.1072134658057</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O42" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784699</v>
+        <v>240.3316445737181</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P43" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q43" t="n">
         <v>25.94761179166379</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>433.5938915781806</v>
       </c>
       <c r="M45" t="n">
-        <v>20.1072134658057</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
         <v>25.94761179166379</v>
